--- a/Data/VParty.xlsx
+++ b/Data/VParty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/Research/populism-index/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_4C1335F1ED5DE0EBAC98936F2D2F3F3FD9E9F9BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4C133901F36C64F00E98934AD5EB3C2BD9E9F9BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
@@ -2565,7 +2565,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2574,8 +2574,8 @@
     <col min="4" max="4" width="40.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.6640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="6" customWidth="1"/>
-    <col min="8" max="15" width="9.109375" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="4"/>
+    <col min="8" max="17" width="9.109375" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -10147,11 +10147,11 @@
         <v>26</v>
       </c>
       <c r="E322" s="9">
-        <f t="shared" ref="E322:E359" si="10">F322</f>
+        <f t="shared" ref="E322:E385" si="10">F322</f>
         <v>0.67649999999999999</v>
       </c>
       <c r="F322" s="9">
-        <f t="shared" ref="F322:F359" si="11">IF(IFERROR(HLOOKUP(G322,VParty,C322,FALSE), "")=0, "", IFERROR(HLOOKUP(G322,VParty,C322,FALSE), ""))</f>
+        <f t="shared" ref="F322:F385" si="11">IF(IFERROR(HLOOKUP(G322,VParty,C322,FALSE), "")=0, "", IFERROR(HLOOKUP(G322,VParty,C322,FALSE), ""))</f>
         <v>0.67649999999999999</v>
       </c>
       <c r="G322" s="8">
@@ -20188,11 +20188,11 @@
         <v>52</v>
       </c>
       <c r="E745" s="9" t="str">
-        <f t="shared" ref="E745:E806" si="24">F745</f>
+        <f t="shared" ref="E745:E808" si="24">F745</f>
         <v/>
       </c>
       <c r="F745" s="9" t="str">
-        <f t="shared" ref="F745:F806" si="25">IF(IFERROR(HLOOKUP(G745,VParty,C745,FALSE), "")=0, "", IFERROR(HLOOKUP(G745,VParty,C745,FALSE), ""))</f>
+        <f t="shared" ref="F745:F808" si="25">IF(IFERROR(HLOOKUP(G745,VParty,C745,FALSE), "")=0, "", IFERROR(HLOOKUP(G745,VParty,C745,FALSE), ""))</f>
         <v/>
       </c>
       <c r="G745" s="8"/>
@@ -42965,11 +42965,11 @@
         <v>110</v>
       </c>
       <c r="E1704" s="9" t="str">
-        <f t="shared" ref="E1704:E1717" si="54">F1704</f>
+        <f t="shared" ref="E1704:E1767" si="54">F1704</f>
         <v/>
       </c>
       <c r="F1704" s="9" t="str">
-        <f t="shared" ref="F1704:F1717" si="55">IF(IFERROR(HLOOKUP(G1704,VParty,C1704,FALSE), "")=0, "", IFERROR(HLOOKUP(G1704,VParty,C1704,FALSE), ""))</f>
+        <f t="shared" ref="F1704:F1767" si="55">IF(IFERROR(HLOOKUP(G1704,VParty,C1704,FALSE), "")=0, "", IFERROR(HLOOKUP(G1704,VParty,C1704,FALSE), ""))</f>
         <v/>
       </c>
       <c r="G1704" s="8"/>
@@ -61650,21 +61650,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="AA1:AN1"/>
-    <mergeCell ref="AO1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BW1"/>
-    <mergeCell ref="BX1:CH1"/>
-    <mergeCell ref="CI1:CQ1"/>
-    <mergeCell ref="CS1:CW1"/>
-    <mergeCell ref="CX1:DY1"/>
-    <mergeCell ref="DZ1:FA1"/>
-    <mergeCell ref="FB1:FG1"/>
-    <mergeCell ref="FH1:FL1"/>
-    <mergeCell ref="FM1:GH1"/>
-    <mergeCell ref="GI1:GJ1"/>
-    <mergeCell ref="GK1:GV1"/>
     <mergeCell ref="JJ1:KJ1"/>
     <mergeCell ref="KK1:KO1"/>
     <mergeCell ref="KP1:KT1"/>
@@ -61674,6 +61659,21 @@
     <mergeCell ref="HQ1:IS1"/>
     <mergeCell ref="IT1:JB1"/>
     <mergeCell ref="JC1:JI1"/>
+    <mergeCell ref="FB1:FG1"/>
+    <mergeCell ref="FH1:FL1"/>
+    <mergeCell ref="FM1:GH1"/>
+    <mergeCell ref="GI1:GJ1"/>
+    <mergeCell ref="GK1:GV1"/>
+    <mergeCell ref="BX1:CH1"/>
+    <mergeCell ref="CI1:CQ1"/>
+    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="CX1:DY1"/>
+    <mergeCell ref="DZ1:FA1"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="AA1:AN1"/>
+    <mergeCell ref="AO1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BW1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/VParty.xlsx
+++ b/Data/VParty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/Research/populism-index/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_4C133901F36C64F00E98934AD5EB3C2BD9E9F9BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4C139F796FDF49EA269993689DA81CCFD9E9F9BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
@@ -2565,7 +2565,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2574,8 +2574,8 @@
     <col min="4" max="4" width="40.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.6640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="6" customWidth="1"/>
-    <col min="8" max="17" width="9.109375" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="4"/>
+    <col min="8" max="18" width="9.109375" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/Data/VParty.xlsx
+++ b/Data/VParty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/Research/populism-index/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_01C75D96CA703E1DBB838BD03B6F2CFDD8E3FCD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE0F0B4-4C8B-4222-A509-DBDECB6D2B80}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_01C75D96CA703E1DBB838BD03B6F2CFDD8E3FCD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92CF3B9-BE69-42E0-887E-C162E7ED9177}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
@@ -2577,8 +2577,8 @@
   <dimension ref="A1:L1717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane ySplit="1" topLeftCell="A798" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J810" sqref="J810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33154,7 +33154,7 @@
         <v>56</v>
       </c>
       <c r="E770" s="9" t="str">
-        <f t="shared" ref="E770:E806" si="72">J770</f>
+        <f t="shared" ref="E770:E807" si="72">J770</f>
         <v/>
       </c>
       <c r="F770" s="9" t="str">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="I770" s="8"/>
       <c r="J770" s="9" t="str">
-        <f t="shared" ref="J770:J833" si="75">IF(IFERROR(HLOOKUP(I770,VParty,C770,FALSE), "")=0, "", IFERROR(HLOOKUP(I770,VParty,C770,FALSE), ""))</f>
+        <f t="shared" ref="J770:J807" si="75">IF(IFERROR(HLOOKUP(I770,VParty,C770,FALSE), "")=0, "", IFERROR(HLOOKUP(I770,VParty,C770,FALSE), ""))</f>
         <v/>
       </c>
       <c r="K770" s="4" t="str">
@@ -34616,7 +34616,10 @@
       <c r="D807" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E807" s="9"/>
+      <c r="E807" s="9">
+        <f t="shared" si="72"/>
+        <v>0.58399999999999996</v>
+      </c>
       <c r="F807" s="9" t="str">
         <f t="shared" si="73"/>
         <v>FRG</v>
@@ -34628,7 +34631,10 @@
       <c r="I807" s="8">
         <v>941</v>
       </c>
-      <c r="J807" s="9"/>
+      <c r="J807" s="9">
+        <f t="shared" si="75"/>
+        <v>0.58399999999999996</v>
+      </c>
       <c r="K807" s="4" t="str">
         <f t="shared" si="76"/>
         <v>FRG</v>
@@ -70381,7 +70387,7 @@
       </c>
       <c r="I1704" s="8"/>
       <c r="J1704" s="9" t="str">
-        <f t="shared" ref="J1704:J1767" si="163">IF(IFERROR(HLOOKUP(I1704,VParty,C1704,FALSE), "")=0, "", IFERROR(HLOOKUP(I1704,VParty,C1704,FALSE), ""))</f>
+        <f t="shared" ref="J1704:J1717" si="163">IF(IFERROR(HLOOKUP(I1704,VParty,C1704,FALSE), "")=0, "", IFERROR(HLOOKUP(I1704,VParty,C1704,FALSE), ""))</f>
         <v/>
       </c>
       <c r="K1704" s="4" t="str">
@@ -89277,6 +89283,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="AA1:AN1"/>
+    <mergeCell ref="AO1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BW1"/>
+    <mergeCell ref="BX1:CH1"/>
+    <mergeCell ref="CI1:CQ1"/>
+    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="CX1:DY1"/>
+    <mergeCell ref="DZ1:FA1"/>
+    <mergeCell ref="FB1:FG1"/>
+    <mergeCell ref="FH1:FL1"/>
+    <mergeCell ref="FM1:GH1"/>
+    <mergeCell ref="GI1:GJ1"/>
+    <mergeCell ref="GK1:GV1"/>
     <mergeCell ref="JJ1:KJ1"/>
     <mergeCell ref="KK1:KO1"/>
     <mergeCell ref="KP1:KT1"/>
@@ -89286,21 +89307,6 @@
     <mergeCell ref="HQ1:IS1"/>
     <mergeCell ref="IT1:JB1"/>
     <mergeCell ref="JC1:JI1"/>
-    <mergeCell ref="FB1:FG1"/>
-    <mergeCell ref="FH1:FL1"/>
-    <mergeCell ref="FM1:GH1"/>
-    <mergeCell ref="GI1:GJ1"/>
-    <mergeCell ref="GK1:GV1"/>
-    <mergeCell ref="BX1:CH1"/>
-    <mergeCell ref="CI1:CQ1"/>
-    <mergeCell ref="CS1:CW1"/>
-    <mergeCell ref="CX1:DY1"/>
-    <mergeCell ref="DZ1:FA1"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="AA1:AN1"/>
-    <mergeCell ref="AO1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BW1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
